--- a/Excel/PumpFunction.xlsx
+++ b/Excel/PumpFunction.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximedenis/Documents/Projects/Piano_Cocktail/Excell/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximedenis/Documents/Projects/Piano_Cocktail/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD00623-3D0F-7541-8E45-224A6DE6C042}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EE650-F3F4-7242-BAAE-2F92713DA65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{870A9E8D-7FF0-2941-8B2D-B0E361E9AE10}"/>
   </bookViews>
@@ -287,6 +287,15 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,10 +1538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AD76CD-5D73-7B4E-AF91-28A57E1CF5FA}">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A22:A24"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1698,6 +1707,21 @@
         <v>76</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Excel/PumpFunction.xlsx
+++ b/Excel/PumpFunction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximedenis/Documents/Projects/Piano_Cocktail/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69EE650-F3F4-7242-BAAE-2F92713DA65D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18262DE-F52E-634D-A284-A7E3CF3FDE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{870A9E8D-7FF0-2941-8B2D-B0E361E9AE10}"/>
   </bookViews>
@@ -392,6 +392,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Tour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -498,6 +523,31 @@
           </c:spPr>
         </c:minorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Quantité</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1541,7 +1591,7 @@
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Excel/PumpFunction.xlsx
+++ b/Excel/PumpFunction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximedenis/Documents/Projects/Piano_Cocktail/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18262DE-F52E-634D-A284-A7E3CF3FDE20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D7F96-77C0-D445-80DA-4450E677871D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{870A9E8D-7FF0-2941-8B2D-B0E361E9AE10}"/>
   </bookViews>
@@ -35,10 +35,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Tour</t>
+    <t>ml</t>
   </si>
   <si>
-    <t>ml</t>
+    <t>Tours</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Tour</a:t>
+                  <a:t>Tours</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1591,17 +1591,17 @@
   <dimension ref="A2:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/Excel/PumpFunction.xlsx
+++ b/Excel/PumpFunction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maximedenis/Documents/Projects/Piano_Cocktail/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6D7F96-77C0-D445-80DA-4450E677871D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA063ED-C23B-E746-B2C7-1E4C1ED78409}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{870A9E8D-7FF0-2941-8B2D-B0E361E9AE10}"/>
   </bookViews>
